--- a/penguji/db_nilai.xlsx
+++ b/penguji/db_nilai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\penguji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Penilaian Mobile\penguji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B4C2-E42F-49CC-9556-281ACD1E8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B038E2F8-C418-49BA-89C7-3C2DC87927EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C90172FA-9549-4883-B5C1-C1958433D4C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kelompok</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Muhammad Ibnu Mundzir</t>
-  </si>
-  <si>
     <t>Dwi Nur Aini</t>
   </si>
   <si>
@@ -52,16 +49,50 @@
   </si>
   <si>
     <t>Ardan Mizanul Khoiri</t>
+  </si>
+  <si>
+    <t>Khairun Anwar</t>
+  </si>
+  <si>
+    <t>Wilda Nazwatun Nisa</t>
+  </si>
+  <si>
+    <t>Dede Ahmad Fauzan</t>
+  </si>
+  <si>
+    <t>Mochammad Wafi Nur Jihan</t>
+  </si>
+  <si>
+    <t>Hoirul Sambudi</t>
+  </si>
+  <si>
+    <t>Dinda Ayuni</t>
+  </si>
+  <si>
+    <t>Ramlan</t>
+  </si>
+  <si>
+    <t>Fadli Al Masani</t>
+  </si>
+  <si>
+    <t>Agung Prayuda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -410,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD6DEBA-8A2D-4EF7-8E66-03D5B04D1560}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,15 +474,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -459,10 +490,75 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
